--- a/medicine/Mort/Cimetière_militaire_du_Monte_Grappa/Cimetière_militaire_du_Monte_Grappa.xlsx
+++ b/medicine/Mort/Cimetière_militaire_du_Monte_Grappa/Cimetière_militaire_du_Monte_Grappa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_du_Monte_Grappa</t>
+          <t>Cimetière_militaire_du_Monte_Grappa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière militaire du Monte Grappa, situé en région Vénétie (Italie), est l'un des principaux ossuaires militaires de la Première Guerre mondiale. Sanctuaire monumental, il a été construit pour recueillir en un lieu unique les dépouilles des soldats inhumés dans les cimetières dispersés en différents endroits du massif du Monte Grappa à l'issue de la « Grande Guerre » (Première Guerre mondiale).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_du_Monte_Grappa</t>
+          <t>Cimetière_militaire_du_Monte_Grappa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Commencé en 1932, d'après un projet de l'architecte Giovanni Greppi et du sculpteur Giannino Castiglioni qui réaliseront ensuite le cimetière militaire de Redipuglia, l'ossuaire monumental du Monte Grappa est inauguré le 22 septembre 1935.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_du_Monte_Grappa</t>
+          <t>Cimetière_militaire_du_Monte_Grappa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>L'ossuaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est constitué d'une série de gradins semi-circulaires se déroulant sur la pente qui, de la route, conduit au sommet du monument. L'élément caractéristique est le motif à columbarium utilisé pour les loges destinées à recueillir les dépouilles mortelles des soldats tombés au champ d'honneur. Le choix du columbarium, associé à l'utilisation de la pierre brute et du bronze pour la fermeture des locula cherche à rappeler le classicisme romain revendiqué par le régime fasciste commanditaire du monument.
 Le sanctuaire contient les restes de 22 910 soldats ainsi disposés :
